--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021003666666667</v>
+        <v>1.785326666666666</v>
       </c>
       <c r="N2">
-        <v>9.063010999999999</v>
+        <v>5.355979999999999</v>
       </c>
       <c r="O2">
-        <v>0.7073672249993249</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="P2">
-        <v>0.7073672249993248</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="Q2">
-        <v>1.457541625054222</v>
+        <v>0.6865408234688888</v>
       </c>
       <c r="R2">
-        <v>13.117874625488</v>
+        <v>6.178867411219999</v>
       </c>
       <c r="S2">
-        <v>0.1485369894106554</v>
+        <v>0.1224737326727915</v>
       </c>
       <c r="T2">
-        <v>0.1485369894106553</v>
+        <v>0.1224737326727914</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.146952</v>
       </c>
       <c r="O3">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071816</v>
       </c>
       <c r="P3">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071815</v>
       </c>
       <c r="Q3">
-        <v>0.3452795000462223</v>
+        <v>0.2752008398142223</v>
       </c>
       <c r="R3">
-        <v>3.107515500416</v>
+        <v>2.476807558328</v>
       </c>
       <c r="S3">
-        <v>0.03518717857555127</v>
+        <v>0.04909376534440291</v>
       </c>
       <c r="T3">
-        <v>0.03518717857555125</v>
+        <v>0.0490937653444029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5341170000000001</v>
+        <v>0.3923826666666666</v>
       </c>
       <c r="N4">
-        <v>1.602351</v>
+        <v>1.177148</v>
       </c>
       <c r="O4">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="P4">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="Q4">
-        <v>0.2576950729120001</v>
+        <v>0.1508893157302222</v>
       </c>
       <c r="R4">
-        <v>2.319255656208</v>
+        <v>1.358003841572</v>
       </c>
       <c r="S4">
-        <v>0.02626151435975892</v>
+        <v>0.02691752199752634</v>
       </c>
       <c r="T4">
-        <v>0.02626151435975892</v>
+        <v>0.02691752199752634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.021003666666667</v>
+        <v>1.785326666666666</v>
       </c>
       <c r="N5">
-        <v>9.063010999999999</v>
+        <v>5.355979999999999</v>
       </c>
       <c r="O5">
-        <v>0.7073672249993249</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="P5">
-        <v>0.7073672249993248</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="Q5">
-        <v>3.355815461036</v>
+        <v>1.98319085048</v>
       </c>
       <c r="R5">
-        <v>30.202339149324</v>
+        <v>17.84871765432</v>
       </c>
       <c r="S5">
-        <v>0.3419886725920946</v>
+        <v>0.3537863703917384</v>
       </c>
       <c r="T5">
-        <v>0.3419886725920945</v>
+        <v>0.3537863703917384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.146952</v>
       </c>
       <c r="O6">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071816</v>
       </c>
       <c r="P6">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071815</v>
       </c>
       <c r="Q6">
         <v>0.7949647987520001</v>
@@ -818,10 +818,10 @@
         <v>7.154683188768001</v>
       </c>
       <c r="S6">
-        <v>0.08101427490256194</v>
+        <v>0.1418157564974634</v>
       </c>
       <c r="T6">
-        <v>0.08101427490256191</v>
+        <v>0.1418157564974634</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5341170000000001</v>
+        <v>0.3923826666666666</v>
       </c>
       <c r="N7">
-        <v>1.602351</v>
+        <v>1.177148</v>
       </c>
       <c r="O7">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="P7">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="Q7">
-        <v>0.593312118876</v>
+        <v>0.4358696528479999</v>
       </c>
       <c r="R7">
-        <v>5.339809069884001</v>
+        <v>3.922826875631999</v>
       </c>
       <c r="S7">
-        <v>0.06046399938349577</v>
+        <v>0.0777558762978753</v>
       </c>
       <c r="T7">
-        <v>0.06046399938349576</v>
+        <v>0.0777558762978753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.021003666666667</v>
+        <v>1.785326666666666</v>
       </c>
       <c r="N8">
-        <v>9.063010999999999</v>
+        <v>5.355979999999999</v>
       </c>
       <c r="O8">
-        <v>0.7073672249993249</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="P8">
-        <v>0.7073672249993248</v>
+        <v>0.6170427000672803</v>
       </c>
       <c r="Q8">
-        <v>2.127790561551889</v>
+        <v>0.7891733024466664</v>
       </c>
       <c r="R8">
-        <v>19.150115053967</v>
+        <v>7.102559722019998</v>
       </c>
       <c r="S8">
-        <v>0.216841562996575</v>
+        <v>0.1407825970027505</v>
       </c>
       <c r="T8">
-        <v>0.2168415629965749</v>
+        <v>0.1407825970027504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.146952</v>
       </c>
       <c r="O9">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071816</v>
       </c>
       <c r="P9">
-        <v>0.1675694179833557</v>
+        <v>0.2473424208071815</v>
       </c>
       <c r="Q9">
-        <v>0.504055903904889</v>
+        <v>0.3163412111386667</v>
       </c>
       <c r="R9">
-        <v>4.536503135144001</v>
+        <v>2.847070900248</v>
       </c>
       <c r="S9">
-        <v>0.05136796450524254</v>
+        <v>0.05643289896531527</v>
       </c>
       <c r="T9">
-        <v>0.05136796450524253</v>
+        <v>0.05643289896531525</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5341170000000001</v>
+        <v>0.3923826666666666</v>
       </c>
       <c r="N10">
-        <v>1.602351</v>
+        <v>1.177148</v>
       </c>
       <c r="O10">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="P10">
-        <v>0.1250633570173194</v>
+        <v>0.135614879125538</v>
       </c>
       <c r="Q10">
-        <v>0.376195872883</v>
+        <v>0.1734460872946666</v>
       </c>
       <c r="R10">
-        <v>3.385762855947</v>
+        <v>1.561014785652</v>
       </c>
       <c r="S10">
-        <v>0.03833784327406475</v>
+        <v>0.03094148083013636</v>
       </c>
       <c r="T10">
-        <v>0.03833784327406475</v>
+        <v>0.03094148083013635</v>
       </c>
     </row>
   </sheetData>
